--- a/12-29-24 to 01-04-25 Madison Schedule.xlsx
+++ b/12-29-24 to 01-04-25 Madison Schedule.xlsx
@@ -1279,21 +1279,9 @@
       <c r="Y18" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Sue</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="A19" t="inlineStr"/>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
@@ -1374,7 +1362,11 @@
     </row>
     <row r="21">
       <c r="A21" t="inlineStr"/>
-      <c r="B21" t="inlineStr"/>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>5:00 AM START</t>
+        </is>
+      </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr"/>
@@ -1419,7 +1411,7 @@
       <c r="A22" t="inlineStr"/>
       <c r="B22" t="inlineStr">
         <is>
-          <t>5:00 AM START</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="C22" t="inlineStr"/>
@@ -1470,7 +1462,7 @@
       <c r="A23" t="inlineStr"/>
       <c r="B23" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>OUTPOST NATURAL FOODS, MEQUON</t>
         </is>
       </c>
       <c r="C23" t="inlineStr"/>
@@ -1525,7 +1517,7 @@
       <c r="A24" t="inlineStr"/>
       <c r="B24" t="inlineStr">
         <is>
-          <t>OUTPOST NATURAL FOODS, MEQUON</t>
+          <t>7590 W MEQUON RD</t>
         </is>
       </c>
       <c r="C24" t="inlineStr"/>
@@ -1581,7 +1573,7 @@
       <c r="A25" t="inlineStr"/>
       <c r="B25" t="inlineStr">
         <is>
-          <t>7590 W MEQUON RD</t>
+          <t>https://goo.gl/maps/do2xmdVUL8z</t>
         </is>
       </c>
       <c r="C25" t="inlineStr"/>
@@ -1622,11 +1614,7 @@
     </row>
     <row r="26">
       <c r="A26" t="inlineStr"/>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/do2xmdVUL8z</t>
-        </is>
-      </c>
+      <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr"/>
@@ -1664,9 +1652,21 @@
       <c r="Y26" t="inlineStr"/>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr"/>
-      <c r="B27" t="inlineStr"/>
-      <c r="C27" t="inlineStr"/>
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr">
@@ -1709,17 +1709,17 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Curt</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>@ Store, Equip</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="D28" t="inlineStr"/>
@@ -1764,12 +1764,12 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Curt</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1815,12 +1815,12 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1879,12 +1879,12 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1938,12 +1938,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1995,21 +1995,9 @@
       <c r="Y32" t="inlineStr"/>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>Sonia</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="A33" t="inlineStr"/>
+      <c r="B33" t="inlineStr"/>
+      <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr">
@@ -2111,7 +2099,11 @@
     </row>
     <row r="35">
       <c r="A35" t="inlineStr"/>
-      <c r="B35" t="inlineStr"/>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>5:00 AM START</t>
+        </is>
+      </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr"/>
@@ -2164,11 +2156,7 @@
           <t>Josh S</t>
         </is>
       </c>
-      <c r="W35" t="inlineStr">
-        <is>
-          <t>1st Sendiks</t>
-        </is>
-      </c>
+      <c r="W35" t="inlineStr"/>
       <c r="X35" t="inlineStr"/>
       <c r="Y35" t="inlineStr"/>
     </row>
@@ -2176,7 +2164,7 @@
       <c r="A36" t="inlineStr"/>
       <c r="B36" t="inlineStr">
         <is>
-          <t>5:00 AM START</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="C36" t="inlineStr"/>
@@ -2246,7 +2234,7 @@
       <c r="A37" t="inlineStr"/>
       <c r="B37" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>OUTPOST NATURAL FOODS, MILWAUKEE</t>
         </is>
       </c>
       <c r="C37" t="inlineStr"/>
@@ -2293,7 +2281,7 @@
       <c r="A38" t="inlineStr"/>
       <c r="B38" t="inlineStr">
         <is>
-          <t>OUTPOST NATURAL FOODS, MILWAUKEE</t>
+          <t>100 E CAPITOL DR</t>
         </is>
       </c>
       <c r="C38" t="inlineStr"/>
@@ -2337,7 +2325,7 @@
       <c r="A39" t="inlineStr"/>
       <c r="B39" t="inlineStr">
         <is>
-          <t>100 E CAPITOL DR</t>
+          <t>https://goo.gl/maps/n94xpFtHzvE2</t>
         </is>
       </c>
       <c r="C39" t="inlineStr"/>
@@ -2401,7 +2389,7 @@
       <c r="A40" t="inlineStr"/>
       <c r="B40" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/n94xpFtHzvE2</t>
+          <t>*IL Meet is 3:30 am at IL Office</t>
         </is>
       </c>
       <c r="C40" t="inlineStr"/>
@@ -2462,11 +2450,7 @@
     </row>
     <row r="41">
       <c r="A41" t="inlineStr"/>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>*IL Meet is 3:30 am at IL Office</t>
-        </is>
-      </c>
+      <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr">
@@ -2524,9 +2508,21 @@
       <c r="Y41" t="inlineStr"/>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr"/>
-      <c r="B42" t="inlineStr"/>
-      <c r="C42" t="inlineStr"/>
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Brianna</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr">
         <is>
@@ -2586,17 +2582,18 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Brianna</t>
+          <t>Angela</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>@ Store, Equip</t>
+          <t>Driver, 1/2
+Gray Van</t>
         </is>
       </c>
       <c r="D43" t="inlineStr"/>
@@ -2633,20 +2630,15 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Angela</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Gray Van</t>
-        </is>
-      </c>
+          <t>Eva</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr"/>
@@ -2677,12 +2669,12 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Kayla</t>
         </is>
       </c>
       <c r="C45" t="inlineStr"/>
@@ -2736,12 +2728,12 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Kayla</t>
+          <t>Lorena</t>
         </is>
       </c>
       <c r="C46" t="inlineStr"/>
@@ -2791,15 +2783,20 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Lorena</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr"/>
+          <t>Qiana</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Gray Van</t>
+        </is>
+      </c>
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr">
@@ -2836,22 +2833,9 @@
       <c r="Y47" t="inlineStr"/>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>Qiana</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Gray Van</t>
-        </is>
-      </c>
+      <c r="A48" t="inlineStr"/>
+      <c r="B48" t="inlineStr"/>
+      <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr">
@@ -2929,7 +2913,11 @@
     </row>
     <row r="50">
       <c r="A50" t="inlineStr"/>
-      <c r="B50" t="inlineStr"/>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>5:00 AM START</t>
+        </is>
+      </c>
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr"/>
@@ -2966,7 +2954,7 @@
       <c r="A51" t="inlineStr"/>
       <c r="B51" t="inlineStr">
         <is>
-          <t>5:00 AM START</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="C51" t="inlineStr"/>
@@ -3013,7 +3001,7 @@
       <c r="A52" t="inlineStr"/>
       <c r="B52" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>OUTPOST NATURAL FOODS, WAUWATOSA</t>
         </is>
       </c>
       <c r="C52" t="inlineStr"/>
@@ -3068,7 +3056,7 @@
       <c r="A53" t="inlineStr"/>
       <c r="B53" t="inlineStr">
         <is>
-          <t>OUTPOST NATURAL FOODS, WAUWATOSA</t>
+          <t>7000 W STATE ST</t>
         </is>
       </c>
       <c r="C53" t="inlineStr"/>
@@ -3136,7 +3124,7 @@
       <c r="A54" t="inlineStr"/>
       <c r="B54" t="inlineStr">
         <is>
-          <t>7000 W STATE ST</t>
+          <t>https://goo.gl/maps/9Apjjj8M6672</t>
         </is>
       </c>
       <c r="C54" t="inlineStr"/>
@@ -3192,7 +3180,7 @@
       <c r="A55" t="inlineStr"/>
       <c r="B55" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/9Apjjj8M6672</t>
+          <t>*IL Meet is 3:30 am at IL Office</t>
         </is>
       </c>
       <c r="C55" t="inlineStr"/>
@@ -3221,11 +3209,7 @@
     </row>
     <row r="56">
       <c r="A56" t="inlineStr"/>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>*IL Meet is 3:30 am at IL Office</t>
-        </is>
-      </c>
+      <c r="B56" t="inlineStr"/>
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr"/>
@@ -3251,9 +3235,21 @@
       <c r="Y56" t="inlineStr"/>
     </row>
     <row r="57">
-      <c r="A57" t="inlineStr"/>
-      <c r="B57" t="inlineStr"/>
-      <c r="C57" t="inlineStr"/>
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr"/>
@@ -3284,19 +3280,15 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+          <t>Anisha</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr"/>
       <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr"/>
       <c r="F58" t="inlineStr"/>
@@ -3327,15 +3319,20 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Anisha</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr"/>
+          <t>Evelin</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Silver Van</t>
+        </is>
+      </c>
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr"/>
       <c r="F59" t="inlineStr"/>
@@ -3366,20 +3363,15 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Evelin</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Silver Van</t>
-        </is>
-      </c>
+          <t>Joseph</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr"/>
       <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr"/>
       <c r="F60" t="inlineStr"/>
@@ -3410,12 +3402,12 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Josh S</t>
         </is>
       </c>
       <c r="C61" t="inlineStr"/>
@@ -3449,15 +3441,20 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Josh S</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr"/>
+          <t>Nate</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Silver Van</t>
+        </is>
+      </c>
       <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr"/>
       <c r="F62" t="inlineStr"/>
@@ -3482,22 +3479,9 @@
       <c r="Y62" t="inlineStr"/>
     </row>
     <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>Nate</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Silver Van</t>
-        </is>
-      </c>
+      <c r="A63" t="inlineStr"/>
+      <c r="B63" t="inlineStr"/>
+      <c r="C63" t="inlineStr"/>
       <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr"/>
       <c r="F63" t="inlineStr"/>
